--- a/Parameters/IR Output dictionary.xlsx
+++ b/Parameters/IR Output dictionary.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bacteria Data" sheetId="1" r:id="rId1"/>
     <sheet name="Bacteria Categorization" sheetId="2" r:id="rId2"/>
+    <sheet name="Chl data" sheetId="3" r:id="rId3"/>
+    <sheet name="Chl Categorization" sheetId="4" r:id="rId4"/>
+    <sheet name="DO Data" sheetId="5" r:id="rId5"/>
+    <sheet name="DO Categorization" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="215">
   <si>
     <t>OrganizationID</t>
   </si>
@@ -93,6 +97,12 @@
     <t>Result_status</t>
   </si>
   <si>
+    <t>Statistical_Base</t>
+  </si>
+  <si>
+    <t>Time_Basis</t>
+  </si>
+  <si>
     <t>SampleStartDate</t>
   </si>
   <si>
@@ -403,6 +413,267 @@
   </si>
   <si>
     <t>Single Sample Criteria (Comapred against median value)</t>
+  </si>
+  <si>
+    <t>Chla_Criteria</t>
+  </si>
+  <si>
+    <t>monthaverage</t>
+  </si>
+  <si>
+    <t>avg.3.mo</t>
+  </si>
+  <si>
+    <t>chr_uid</t>
+  </si>
+  <si>
+    <t>Characteristic unique identifier</t>
+  </si>
+  <si>
+    <t>Chl-a criteria</t>
+  </si>
+  <si>
+    <t>Mean of samples within calendar month</t>
+  </si>
+  <si>
+    <t>max_result</t>
+  </si>
+  <si>
+    <t>max_mo_avg</t>
+  </si>
+  <si>
+    <t>max_3_mo_avg</t>
+  </si>
+  <si>
+    <t>Maximum result over IR window</t>
+  </si>
+  <si>
+    <t>Maximum monthly average over IR window</t>
+  </si>
+  <si>
+    <t>Mean of samples within 3 calendar months ending on start date. Only calculated if at least one sample in each month exists</t>
+  </si>
+  <si>
+    <t>Maximum 3 month average over IR window. Only calculated if at least one sample in each month exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll-a IR Categorization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll-a IR Data </t>
+  </si>
+  <si>
+    <t>Act_Depth_Top</t>
+  </si>
+  <si>
+    <t>DO_code</t>
+  </si>
+  <si>
+    <t>DO_Class</t>
+  </si>
+  <si>
+    <t>DO_SpawnCode</t>
+  </si>
+  <si>
+    <t>SpawnStart</t>
+  </si>
+  <si>
+    <t>SpawnEnd</t>
+  </si>
+  <si>
+    <t>crit_30D</t>
+  </si>
+  <si>
+    <t>crit_7Mi</t>
+  </si>
+  <si>
+    <t>crit_Min</t>
+  </si>
+  <si>
+    <t>in_spawn</t>
+  </si>
+  <si>
+    <t>critstart</t>
+  </si>
+  <si>
+    <t>critend</t>
+  </si>
+  <si>
+    <t>is.crit</t>
+  </si>
+  <si>
+    <t>Violation</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ma.DOS.mean30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO year Round Continuous IR Data </t>
+  </si>
+  <si>
+    <t>Method used to calculate derived results. (example: as Mean, Maximum, etc.)</t>
+  </si>
+  <si>
+    <t>Statistical n value (7 days, 30 days, etc.)</t>
+  </si>
+  <si>
+    <t>The upper vertical extent of an activity (measured from a reference point).</t>
+  </si>
+  <si>
+    <t>DO Code from standards layer. Indicates which standards apply</t>
+  </si>
+  <si>
+    <t>Indicates which standards apply</t>
+  </si>
+  <si>
+    <t>Time peiord where DO spawning criteria apply</t>
+  </si>
+  <si>
+    <t>End of DO Spawning period</t>
+  </si>
+  <si>
+    <t>30-day mean minimum criteria</t>
+  </si>
+  <si>
+    <t>7-day mean minimum criteria</t>
+  </si>
+  <si>
+    <t>Absolute minimum criteria</t>
+  </si>
+  <si>
+    <t>Flag for if sample is in a spawning period</t>
+  </si>
+  <si>
+    <t>Start of DO Spawning period</t>
+  </si>
+  <si>
+    <t>Start of water quality standard critical period</t>
+  </si>
+  <si>
+    <t>End of water quality standard critical period</t>
+  </si>
+  <si>
+    <t>Flag for is sample is in a critical period</t>
+  </si>
+  <si>
+    <t>Flag for if the result is a water quality excursion</t>
+  </si>
+  <si>
+    <t>Same as sample start date. This is a holdover of formatting in the code</t>
+  </si>
+  <si>
+    <t>30-day mean percent saturation value. This is only calculated where it could influence the IR category designation (AU  has ≥ 2 30-D values below the 30-D criteria, but &lt; 2 7-Mi and daily minimum values below criteria)</t>
+  </si>
+  <si>
+    <t>DO_sat</t>
+  </si>
+  <si>
+    <t>DO saturation value. This is only calculated where it could influence the IR category designation</t>
+  </si>
+  <si>
+    <t>dosat_mean7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO Spawn Continuous IR Data </t>
+  </si>
+  <si>
+    <t>Temp_res</t>
+  </si>
+  <si>
+    <t>Calculated DO saturdation vakye</t>
+  </si>
+  <si>
+    <t>calculated 7 day average DO sat</t>
+  </si>
+  <si>
+    <t>Temperature result used in DO_saturdation calculation</t>
+  </si>
+  <si>
+    <t>Year Round</t>
+  </si>
+  <si>
+    <t>Spawning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO Spawn Instant IR Data </t>
+  </si>
+  <si>
+    <t>Total_violations</t>
+  </si>
+  <si>
+    <t>Sum_30D_violations</t>
+  </si>
+  <si>
+    <t>Sum_7mi_violations</t>
+  </si>
+  <si>
+    <t>Sum_abs_min_violations</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Total number of criteria excursions</t>
+  </si>
+  <si>
+    <t>Number of 30D excursions</t>
+  </si>
+  <si>
+    <t>Number of 7mi excursions</t>
+  </si>
+  <si>
+    <t>Number of absolute minimum excursions</t>
+  </si>
+  <si>
+    <t>IR category</t>
+  </si>
+  <si>
+    <t>DO Year Round Continuous Categorization</t>
+  </si>
+  <si>
+    <t>num_critical_samples</t>
+  </si>
+  <si>
+    <t>critical_excursions</t>
+  </si>
+  <si>
+    <t>Total number of samples in IR window</t>
+  </si>
+  <si>
+    <t>Number of samples in critical period</t>
+  </si>
+  <si>
+    <t>num_excursions</t>
+  </si>
+  <si>
+    <t>Numbe rof excursions in IR window</t>
+  </si>
+  <si>
+    <t>Number of excursions in critical period</t>
+  </si>
+  <si>
+    <t>DO Year Round Instant Categorization</t>
+  </si>
+  <si>
+    <t>DO Spawning Continuous Catergoization</t>
+  </si>
+  <si>
+    <t>num_violations</t>
+  </si>
+  <si>
+    <t>Number of criteria excursions</t>
+  </si>
+  <si>
+    <t>num_Violations</t>
+  </si>
+  <si>
+    <t>DO Spawning Instant Catergoization</t>
+  </si>
+  <si>
+    <t>Number of excursions in a critical period</t>
   </si>
 </sst>
 </file>
@@ -426,12 +697,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -446,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -471,12 +754,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFA7A7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -751,10 +1045,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFA7A7"/>
+  </sheetPr>
   <dimension ref="A2:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,28 +1065,28 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -797,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" t="s">
@@ -813,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" t="s">
@@ -829,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" t="s">
@@ -845,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" t="s">
@@ -861,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" t="s">
@@ -877,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" t="s">
@@ -893,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" t="s">
@@ -909,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" t="s">
@@ -925,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" t="s">
@@ -941,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" t="s">
@@ -957,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" t="s">
@@ -973,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" t="s">
@@ -989,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" t="s">
@@ -1005,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" t="s">
@@ -1021,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" t="s">
@@ -1037,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" t="s">
@@ -1053,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" t="s">
@@ -1069,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" t="s">
@@ -1085,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" t="s">
@@ -1101,7 +1398,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" t="s">
@@ -1117,7 +1414,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" t="s">
@@ -1133,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" t="s">
@@ -1146,14 +1443,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1162,14 +1459,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1178,14 +1475,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1194,14 +1491,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1210,14 +1507,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1226,14 +1523,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1242,14 +1539,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1258,14 +1555,14 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1274,14 +1571,14 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1290,14 +1587,14 @@
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1306,14 +1603,14 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1322,14 +1619,14 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1338,14 +1635,14 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1354,14 +1651,14 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1370,14 +1667,14 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1386,14 +1683,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1402,14 +1699,14 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1418,14 +1715,14 @@
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1434,14 +1731,14 @@
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1450,79 +1747,79 @@
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C52" s="7"/>
     </row>
@@ -1537,10 +1834,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFA7A7"/>
+  </sheetPr>
   <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,27 +1854,27 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1585,13 +1885,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1599,83 +1899,83 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1683,13 +1983,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1697,7 +1997,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1705,15 +2005,15 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1723,4 +2023,2246 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,'Bacteria Data'!$A$4:$B$52,2,FALSE)</f>
+        <v>Assessment Unit ID</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,'Bacteria Data'!$A$4:$B$52,2,FALSE)</f>
+        <v>OWRD Basin</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,'Bacteria Data'!$A$4:$B$52,2,FALSE)</f>
+        <v xml:space="preserve">Monitoring Location Type </v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,'Bacteria Data'!$A$4:$B$52,2,FALSE)</f>
+        <v>Characteristic Name</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>VLOOKUP(D4,$A$4:$B$55,2,FALSE)</f>
+        <v xml:space="preserve">Responsible Organization </v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP(G4,$A$4:$B$55,2,FALSE)</f>
+        <v xml:space="preserve">Responsible Organization </v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>VLOOKUP(J4,$G$4:$H$52,2,FALSE)</f>
+        <v xml:space="preserve">Responsible Organization </v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" ref="E5:E54" si="0">VLOOKUP(D5,$A$4:$B$55,2,FALSE)</f>
+        <v>Monitoring Location</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" ref="H5:H52" si="1">VLOOKUP(G5,$A$4:$B$55,2,FALSE)</f>
+        <v>Monitoring Location</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" ref="K5:K48" si="2">VLOOKUP(J5,$G$4:$H$52,2,FALSE)</f>
+        <v>Monitoring Location</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>monitoring Location Description</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>monitoring Location Description</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>monitoring Location Description</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Monitoring Location Type </v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Monitoring Location Type </v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Monitoring Location Type </v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>HUC 12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>HUC 12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>HUC 12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Elevation in feet</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Elevation in feet</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Elevation in feet</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Assessment Unit ID</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Assessment Unit ID</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Assessment Unit ID</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Water Type Code from standards layer</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Water Type Code from standards layer</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Water Type Code from standards layer</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Code used to designate Water body type (River, estuary, lake, etc)</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Code used to designate Water body type (River, estuary, lake, etc)</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Code used to designate Water body type (River, estuary, lake, etc)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Beneficial Use Code from Standards Layer</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Beneficial Use Code from Standards Layer</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Beneficial Use Code from Standards Layer</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OWRD Basin</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>OWRD Basin</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>OWRD Basin</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Code used to connect result to water quality standard. </v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Code used to connect result to water quality standard. </v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Code used to connect result to water quality standard. </v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Pollutant ID. Used to join pollutants with alternative names</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Pollutant ID. Used to join pollutants with alternative names</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Pollutant ID. Used to join pollutants with alternative names</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Characteristic Name</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Characteristic Name</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Characteristic Name</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample Media</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sample Media</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Sample Media</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample Sub Media</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sample Sub Media</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Sample Sub Media</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample Fraction</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sample Fraction</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Sample Fraction</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Result Status</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Result Status</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Result Status</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Method used to calculate derived results. (example: as Mean, Maximum, etc.)</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Method used to calculate derived results. (example: as Mean, Maximum, etc.)</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Method used to calculate derived results. (example: as Mean, Maximum, etc.)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Statistical n value (7 days, 30 days, etc.)</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Statistical n value (7 days, 30 days, etc.)</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Statistical n value (7 days, 30 days, etc.)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample Date</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sample Date</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Sample Date</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Sample Time</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Sample Time</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Sample Time</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>The upper vertical extent of an activity (measured from a reference point).</v>
+      </c>
+      <c r="G26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>The upper vertical extent of an activity (measured from a reference point).</v>
+      </c>
+      <c r="J26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>The upper vertical extent of an activity (measured from a reference point).</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity Depth</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Activity Depth</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Activity Depth</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Result Type</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Result Type</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Result Type</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Result Unique ID</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Result Unique ID</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Result Unique ID</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Result from AWQMS in mumeric type</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Result from AWQMS in mumeric type</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Result from AWQMS in mumeric type</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Result Unit from AWQMS</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Result Unit from AWQMS</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Result Unit from AWQMS</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Result converted to water quality standard unit and set to QL if Result_operator is '&lt;'</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Result converted to water quality standard unit and set to QL if Result_operator is '&lt;'</v>
+      </c>
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Result modifyer ( &lt; , &gt; )</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Result modifyer ( &lt; , &gt; )</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Result modifyer ( &lt; , &gt; )</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Wate Quality standard unit</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Wate Quality standard unit</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Wate Quality standard unit</v>
+      </c>
+      <c r="J34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Labrotory comments </v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Labrotory comments </v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Labrotory comments </v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>General comments</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>General comments</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>General comments</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Data Qualifyer</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Data Qualifyer</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Data Qualifyer</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Data Qualifyer text</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Data Qualifyer text</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Data Qualifyer text</v>
+      </c>
+      <c r="J38" t="s">
+        <v>145</v>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DO Code from standards layer. Indicates which standards apply</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DO Code from standards layer. Indicates which standards apply</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DO Code from standards layer. Indicates which standards apply</v>
+      </c>
+      <c r="J39" t="s">
+        <v>146</v>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Indicates which standards apply</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Indicates which standards apply</v>
+      </c>
+      <c r="G40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Indicates which standards apply</v>
+      </c>
+      <c r="J40" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Time peiord where DO spawning criteria apply</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Time peiord where DO spawning criteria apply</v>
+      </c>
+      <c r="G41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Time peiord where DO spawning criteria apply</v>
+      </c>
+      <c r="J41" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Start of DO Spawning period</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Start of DO Spawning period</v>
+      </c>
+      <c r="G42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Start of DO Spawning period</v>
+      </c>
+      <c r="J42" t="s">
+        <v>149</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>End of DO Spawning period</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>End of DO Spawning period</v>
+      </c>
+      <c r="G43" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>End of DO Spawning period</v>
+      </c>
+      <c r="J43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>30-day mean minimum criteria</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>30-day mean minimum criteria</v>
+      </c>
+      <c r="G44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>30-day mean minimum criteria</v>
+      </c>
+      <c r="J44" t="s">
+        <v>151</v>
+      </c>
+      <c r="K44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>7-day mean minimum criteria</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7-day mean minimum criteria</v>
+      </c>
+      <c r="G45" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>7-day mean minimum criteria</v>
+      </c>
+      <c r="J45" t="s">
+        <v>152</v>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Absolute minimum criteria</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Absolute minimum criteria</v>
+      </c>
+      <c r="G46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Absolute minimum criteria</v>
+      </c>
+      <c r="J46" t="s">
+        <v>179</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Initial Data validation designation</v>
+      </c>
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Initial Data validation designation</v>
+      </c>
+      <c r="J47" t="s">
+        <v>183</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Data Validation designation after manual review</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Data Validation designation after manual review</v>
+      </c>
+      <c r="J48" t="s">
+        <v>157</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Flag for if the result is a water quality excursion</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Flag for if sample is in a spawning period</v>
+      </c>
+      <c r="G49" t="s">
+        <v>153</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Flag for if sample is in a spawning period</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Start of water quality standard critical period</v>
+      </c>
+      <c r="G50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Same as sample start date. This is a holdover of formatting in the code</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>End of water quality standard critical period</v>
+      </c>
+      <c r="G51" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Flag for is sample is in a critical period</v>
+      </c>
+      <c r="G52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Flag for if the result is a water quality excursion</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Flag for if the result is a water quality excursion</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,'Bacteria Categorization'!$A$4:$B$14,2,FALSE)</f>
+        <v>Assessment Unit ID</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="str">
+        <f>VLOOKUP(D4,$A$4:$B$11,2,FALSE)</f>
+        <v>Assessment Unit ID</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="str">
+        <f>VLOOKUP(G4,$A$4:$B$11,2,FALSE)</f>
+        <v>Assessment Unit ID</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="str">
+        <f>VLOOKUP(J4,$G$4:$H$7,2,FALSE)</f>
+        <v>Assessment Unit ID</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="str">
+        <f>VLOOKUP(D5,$A$4:$B$11,2,FALSE)</f>
+        <v>Indicates which standards apply</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="str">
+        <f>VLOOKUP(G5,$A$4:$B$11,2,FALSE)</f>
+        <v>OWRD Basin</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K9" si="0">VLOOKUP(J5,$G$4:$H$7,2,FALSE)</f>
+        <v>OWRD Basin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,'Bacteria Categorization'!$A$4:$B$14,2,FALSE)</f>
+        <v>OWRD Basin</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(D6,$A$4:$B$11,2,FALSE)</f>
+        <v>OWRD Basin</v>
+      </c>
+      <c r="G6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" t="str">
+        <f>VLOOKUP(G7,$A$4:$B$11,2,FALSE)</f>
+        <v>IR category</v>
+      </c>
+      <c r="J7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>Number of criteria excursions</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>IR category</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(D11,$A$4:$B$11,2,FALSE)</f>
+        <v>IR category</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Parameters/IR Output dictionary.xlsx
+++ b/Parameters/IR Output dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Bacteria Data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Chl Categorization" sheetId="4" r:id="rId4"/>
     <sheet name="DO Data" sheetId="5" r:id="rId5"/>
     <sheet name="DO Categorization" sheetId="6" r:id="rId6"/>
+    <sheet name="pH Data" sheetId="8" r:id="rId7"/>
+    <sheet name="pH Categorization" sheetId="9" r:id="rId8"/>
+    <sheet name="Temperature Data" sheetId="10" r:id="rId9"/>
+    <sheet name="Temperature Categorization" sheetId="11" r:id="rId10"/>
+    <sheet name="Temperature - Narrative standar" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="277">
   <si>
     <t>OrganizationID</t>
   </si>
@@ -674,6 +679,192 @@
   </si>
   <si>
     <t>Number of excursions in a critical period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH IR Data </t>
+  </si>
+  <si>
+    <t>pH_code</t>
+  </si>
+  <si>
+    <t>pH_Min</t>
+  </si>
+  <si>
+    <t>pH_Max</t>
+  </si>
+  <si>
+    <t>pH_violation</t>
+  </si>
+  <si>
+    <t>pH_violation_high</t>
+  </si>
+  <si>
+    <t>pH_violation_low</t>
+  </si>
+  <si>
+    <t>Monitoring Location type</t>
+  </si>
+  <si>
+    <t>Minimum pH criteria</t>
+  </si>
+  <si>
+    <t>Maximum pH criteria</t>
+  </si>
+  <si>
+    <t>Flag for if result is an excursion of maximum pH criteria</t>
+  </si>
+  <si>
+    <t>Flag for if result is an excursion of minimum pH criteria</t>
+  </si>
+  <si>
+    <t>Flag for if result is an excursion of pH criteria</t>
+  </si>
+  <si>
+    <t>num_Samples</t>
+  </si>
+  <si>
+    <t>num_violation</t>
+  </si>
+  <si>
+    <t>num_violation_high</t>
+  </si>
+  <si>
+    <t>num_violation_low</t>
+  </si>
+  <si>
+    <t>pH_low_crit</t>
+  </si>
+  <si>
+    <t>pH_high_crit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH IR Categorization </t>
+  </si>
+  <si>
+    <t>Number of samples in IR data window</t>
+  </si>
+  <si>
+    <t>Number of excursions</t>
+  </si>
+  <si>
+    <t>Number of excursions of maximum pH criteria</t>
+  </si>
+  <si>
+    <t>number of excursions on minimum pH criteria</t>
+  </si>
+  <si>
+    <t>Minimum number of sample excursions rquired to list as impared. From binomal listing formula</t>
+  </si>
+  <si>
+    <t>SpawnCode</t>
+  </si>
+  <si>
+    <t>FishCode</t>
+  </si>
+  <si>
+    <t>Temp_Criteria</t>
+  </si>
+  <si>
+    <t>Crit_period_start</t>
+  </si>
+  <si>
+    <t>Cirt_period_end</t>
+  </si>
+  <si>
+    <t>Start_spawn</t>
+  </si>
+  <si>
+    <t>End_spawn</t>
+  </si>
+  <si>
+    <t>In_crit_period</t>
+  </si>
+  <si>
+    <t>Spawn_type</t>
+  </si>
+  <si>
+    <t>Spawn_Violation</t>
+  </si>
+  <si>
+    <t>Spawn Code from standards layer. Defines start and end date of spawning time period</t>
+  </si>
+  <si>
+    <t>Temperature criteria</t>
+  </si>
+  <si>
+    <t>Acitivoty depth unit</t>
+  </si>
+  <si>
+    <t>Fish Code. Defines what standard applies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start of critical period </t>
+  </si>
+  <si>
+    <t>End of critical period</t>
+  </si>
+  <si>
+    <t>Start of spawning period</t>
+  </si>
+  <si>
+    <t>End of spawning period</t>
+  </si>
+  <si>
+    <t>Flag for if result is in a critical period</t>
+  </si>
+  <si>
+    <t>Spanwing or non-spawning</t>
+  </si>
+  <si>
+    <t>Flag for if excursion is during a spawning period</t>
+  </si>
+  <si>
+    <t>data_period_start</t>
+  </si>
+  <si>
+    <t>data_period_end</t>
+  </si>
+  <si>
+    <t>total_violations</t>
+  </si>
+  <si>
+    <t>total_Spawn_Violation_count</t>
+  </si>
+  <si>
+    <t>max_violations_3yr</t>
+  </si>
+  <si>
+    <t>max_3yr_results_in_crit_period</t>
+  </si>
+  <si>
+    <t>max_3yr_results_in_spawn_period</t>
+  </si>
+  <si>
+    <t>Temperature IR categorization</t>
+  </si>
+  <si>
+    <t>Last result in IR data window</t>
+  </si>
+  <si>
+    <t>Earliest result in IR data window</t>
+  </si>
+  <si>
+    <t>Excursions in spawning time periods</t>
+  </si>
+  <si>
+    <t>Total excursions from criteria in IR data window</t>
+  </si>
+  <si>
+    <t>Number of violations in the 3 year period with he most amount of violations</t>
+  </si>
+  <si>
+    <t>Number of results in 3 year period with the most amount of results</t>
+  </si>
+  <si>
+    <t>Number of samples in spawning period  in 3 year period with most ampount of results in spawning period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature - Narrative Criteria IR Data </t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1241,8 @@
   </sheetPr>
   <dimension ref="A2:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,6 +2018,485 @@
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,'Chl Categorization'!$A$3:$B$11,2,FALSE)</f>
+        <v>Assessment Unit ID</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,'Chl Categorization'!$A$3:$B$11,2,FALSE)</f>
+        <v>OWRD Basin</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>VLOOKUP(A7,'Chl Categorization'!$A$3:$B$11,2,FALSE)</f>
+        <v>Assigned IR category</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v xml:space="preserve">Responsible Organization </v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Monitoring Location</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Assessment Unit ID</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Beneficial Use Code from Standards Layer</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>VLOOKUP(A7,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v xml:space="preserve">Monitoring Location Type </v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v xml:space="preserve">Code used to connect result to water quality standard. </v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Pollutant ID. Used to join pollutants with alternative names</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>VLOOKUP(A10,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Spawn Code from standards layer. Defines start and end date of spawning time period</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Fish Code. Defines what standard applies</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Start of DO Spawning period</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>End of DO Spawning period</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>VLOOKUP(A14,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Temperature criteria</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>OWRD Basin</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Characteristic Name</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>VLOOKUP(A17,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Sample Media</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>VLOOKUP(A18,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Sample Sub Media</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(A19,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Sample Fraction</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Result Status</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Method used to calculate derived results. (example: as Mean, Maximum, etc.)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Statistical n value (7 days, 30 days, etc.)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>VLOOKUP(A23,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Sample Date</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Sample Time</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>VLOOKUP(A25,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Acitivoty depth unit</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>VLOOKUP(A26,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Activity Depth</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Result Unique ID</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>VLOOKUP(A28,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Result Type</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>VLOOKUP(A29,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Result from AWQMS in mumeric type</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Result Unit from AWQMS</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(A31,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Result modifyer ( &lt; , &gt; )</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>VLOOKUP(A32,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Result converted to water quality standard unit and set to QL if Result_operator is '&lt;'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>VLOOKUP(A33,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Wate Quality standard unit</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>VLOOKUP(A34,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v xml:space="preserve">Labrotory comments </v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>VLOOKUP(A35,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>General comments</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Data Qualifyer</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>VLOOKUP(A37,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Data Qualifyer text</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>VLOOKUP(A38,'Temperature Data'!$A$3:$B$47,2,FALSE)</f>
+        <v>Censored Result. Result after data censoring process described on pg 14 of methodology</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2030,7 +2700,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +3136,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,7 +4660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4265,4 +4935,902 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,'Bacteria Data'!A4:$B$52,2,FALSE)</f>
+        <v xml:space="preserve">Responsible Organization </v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,'Bacteria Data'!A5:$B$52,2,FALSE)</f>
+        <v>Monitoring Location</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,'Bacteria Data'!A6:$B$52,2,FALSE)</f>
+        <v>Assessment Unit ID</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,'Bacteria Data'!A7:$B$52,2,FALSE)</f>
+        <v>Beneficial Use Code from Standards Layer</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,'Bacteria Data'!A9:$B$52,2,FALSE)</f>
+        <v xml:space="preserve">Code used to connect result to water quality standard. </v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,'Bacteria Data'!A10:$B$52,2,FALSE)</f>
+        <v>Pollutant ID. Used to join pollutants with alternative names</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>VLOOKUP(A10,'Bacteria Data'!A11:$B$52,2,FALSE)</f>
+        <v>OWRD Basin</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>VLOOKUP(A11,'Bacteria Data'!A12:$B$52,2,FALSE)</f>
+        <v>Sample Media</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,'Bacteria Data'!A13:$B$52,2,FALSE)</f>
+        <v>Sample Sub Media</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,'Bacteria Data'!A14:$B$52,2,FALSE)</f>
+        <v>Sample Fraction</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>VLOOKUP(A14,'Bacteria Data'!A15:$B$52,2,FALSE)</f>
+        <v>Activity Depth</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,'Bacteria Data'!A16:$B$52,2,FALSE)</f>
+        <v>Activity Depth Unit</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,'Bacteria Data'!A17:$B$52,2,FALSE)</f>
+        <v>Sample Date</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>VLOOKUP(A17,'Bacteria Data'!A18:$B$52,2,FALSE)</f>
+        <v>Sample Time</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>VLOOKUP(A18,'Bacteria Data'!A19:$B$52,2,FALSE)</f>
+        <v>Characteristic Name</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(A19,'Bacteria Data'!A20:$B$52,2,FALSE)</f>
+        <v>Result Status</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,'Bacteria Data'!A21:$B$52,2,FALSE)</f>
+        <v>Result Unique ID</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,'Bacteria Data'!A22:$B$52,2,FALSE)</f>
+        <v>Result Type</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,'Bacteria Data'!A23:$B$52,2,FALSE)</f>
+        <v>Result from AWQMS in mumeric type</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>VLOOKUP(A23,'Bacteria Data'!A24:$B$52,2,FALSE)</f>
+        <v>Result Unit from AWQMS</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,'Bacteria Data'!A25:$B$52,2,FALSE)</f>
+        <v>Result converted to water quality standard unit and set to QL if Result_operator is '&lt;'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>VLOOKUP(A25,'Bacteria Data'!A26:$B$52,2,FALSE)</f>
+        <v>Result modifyer ( &lt; , &gt; )</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>VLOOKUP(A26,'Bacteria Data'!A27:$B$52,2,FALSE)</f>
+        <v>Wate Quality standard unit</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,'Bacteria Data'!A28:$B$52,2,FALSE)</f>
+        <v xml:space="preserve">Labrotory comments </v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>VLOOKUP(A28,'Bacteria Data'!A29:$B$52,2,FALSE)</f>
+        <v>General comments</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>VLOOKUP(A29,'Bacteria Data'!A30:$B$52,2,FALSE)</f>
+        <v>Data Qualifyer</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,'Bacteria Data'!A31:$B$52,2,FALSE)</f>
+        <v>Data Qualifyer text</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>VLOOKUP(A34,'Bacteria Data'!A35:$B$52,2,FALSE)</f>
+        <v>Censored Result. Result after data censoring process described on pg 14 of methodology</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>VLOOKUP(A35,'Bacteria Data'!A36:$B$52,2,FALSE)</f>
+        <v>Initial Data validation designation</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,'Bacteria Data'!A37:$B$52,2,FALSE)</f>
+        <v>Data Validation designation after manual review</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>VLOOKUP(A3,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v xml:space="preserve">Responsible Organization </v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>VLOOKUP(A4,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Monitoring Location</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>VLOOKUP(A5,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Assessment Unit ID</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>VLOOKUP(A6,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Beneficial Use Code from Standards Layer</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>VLOOKUP(A7,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v xml:space="preserve">Monitoring Location Type </v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>VLOOKUP(A8,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v xml:space="preserve">Code used to connect result to water quality standard. </v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>VLOOKUP(A9,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Pollutant ID. Used to join pollutants with alternative names</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>VLOOKUP(A12,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Start of DO Spawning period</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>VLOOKUP(A13,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>End of DO Spawning period</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>VLOOKUP(A15,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>OWRD Basin</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>VLOOKUP(A16,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Characteristic Name</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>VLOOKUP(A17,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Sample Media</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>VLOOKUP(A18,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Sample Sub Media</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(A19,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Sample Fraction</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>VLOOKUP(A20,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Result Status</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>VLOOKUP(A21,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Method used to calculate derived results. (example: as Mean, Maximum, etc.)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>VLOOKUP(A22,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Statistical n value (7 days, 30 days, etc.)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>VLOOKUP(A23,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Sample Date</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>VLOOKUP(A24,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Sample Time</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>VLOOKUP(A26,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Activity Depth</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>VLOOKUP(A27,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Result Unique ID</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>VLOOKUP(A28,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Result Type</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>VLOOKUP(A29,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Result from AWQMS in mumeric type</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>VLOOKUP(A30,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Result Unit from AWQMS</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(A31,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Result modifyer ( &lt; , &gt; )</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>VLOOKUP(A32,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Result converted to water quality standard unit and set to QL if Result_operator is '&lt;'</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>VLOOKUP(A33,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Wate Quality standard unit</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>VLOOKUP(A34,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v xml:space="preserve">Labrotory comments </v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>VLOOKUP(A35,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>General comments</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>VLOOKUP(A36,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Data Qualifyer</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>VLOOKUP(A37,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Data Qualifyer text</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>VLOOKUP(A39,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Initial Data validation designation</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>VLOOKUP(A46,'DO Data'!$A$4:$B$55,2,FALSE)</f>
+        <v>Flag for if the result is a water quality excursion</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>